--- a/要件.xlsx
+++ b/要件.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23530"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23628"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tashi\source\repos\matching_practice\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C3EA9E0-D853-44DA-A30A-57334A420CBC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72F6982D-26BC-4660-BA39-1E51177551DF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="要件" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">要件!$B$3:$D$3</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">要件!$B$3:$F$3</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="41">
   <si>
     <t>機能</t>
     <rPh sb="0" eb="2">
@@ -148,22 +148,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>マッチング募集の検索(複数のカテゴリで検索可能に！)</t>
-    <rPh sb="5" eb="7">
-      <t>ボシュウ</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>ケンサク</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>フクスウ</t>
-    </rPh>
-    <rPh sb="19" eb="23">
-      <t>ケンサクカノウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>登録機能</t>
     <rPh sb="0" eb="4">
       <t>トウロクキノウ</t>
@@ -171,31 +155,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>マッチング募集の登録(他ユーザーが検索機能を使用して閲覧可能)</t>
-    <rPh sb="5" eb="7">
-      <t>ボシュウ</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>トウロク</t>
-    </rPh>
-    <rPh sb="11" eb="12">
-      <t>ホカ</t>
-    </rPh>
-    <rPh sb="17" eb="19">
-      <t>ケンサク</t>
-    </rPh>
-    <rPh sb="19" eb="21">
-      <t>キノウ</t>
-    </rPh>
-    <rPh sb="22" eb="24">
-      <t>シヨウ</t>
-    </rPh>
-    <rPh sb="26" eb="30">
-      <t>エツランカノウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>削除機能</t>
     <rPh sb="0" eb="2">
       <t>サクジョ</t>
@@ -206,90 +165,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>マッチング募集の削除(自分が登録機能をにて登録したマッチング募集を削除する。※マッチングが成立後は削除不可能とする。</t>
-    <rPh sb="5" eb="7">
-      <t>ボシュウ</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>サクジョ</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>ジブン</t>
-    </rPh>
-    <rPh sb="14" eb="18">
-      <t>トウロクキノウ</t>
-    </rPh>
-    <rPh sb="21" eb="23">
-      <t>トウロク</t>
-    </rPh>
-    <rPh sb="30" eb="32">
-      <t>ボシュウ</t>
-    </rPh>
-    <rPh sb="33" eb="35">
-      <t>サクジョ</t>
-    </rPh>
-    <rPh sb="45" eb="47">
-      <t>セイリツ</t>
-    </rPh>
-    <rPh sb="47" eb="48">
-      <t>ゴ</t>
-    </rPh>
-    <rPh sb="49" eb="54">
-      <t>サクジョフカノウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>マッチング申請機能</t>
-    <rPh sb="5" eb="9">
-      <t>シンセイキノウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>他ユーザーのマッチング募集に対して応募を行う(ボタン押下で！1回目の押下時は確認メッセージを表示！2回目で本当に応募)</t>
-    <rPh sb="0" eb="1">
-      <t>タ</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>ボシュウ</t>
-    </rPh>
-    <rPh sb="14" eb="15">
-      <t>タイ</t>
-    </rPh>
-    <rPh sb="17" eb="19">
-      <t>オウボ</t>
-    </rPh>
-    <rPh sb="20" eb="21">
-      <t>オコナ</t>
-    </rPh>
-    <rPh sb="26" eb="28">
-      <t>オウカ</t>
-    </rPh>
-    <rPh sb="31" eb="33">
-      <t>カイメ</t>
-    </rPh>
-    <rPh sb="34" eb="37">
-      <t>オウカジ</t>
-    </rPh>
-    <rPh sb="38" eb="40">
-      <t>カクニン</t>
-    </rPh>
-    <rPh sb="46" eb="48">
-      <t>ヒョウジ</t>
-    </rPh>
-    <rPh sb="50" eb="52">
-      <t>カイメ</t>
-    </rPh>
-    <rPh sb="53" eb="55">
-      <t>ホントウ</t>
-    </rPh>
-    <rPh sb="56" eb="58">
-      <t>オウボ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>チャット機能</t>
     <rPh sb="4" eb="6">
       <t>キノウ</t>
@@ -297,31 +172,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>マッチングを申請したら、マッチング募集を登録したユーザーとマッチング募集に応募したユーザーがメッセージでやり取りをするためのトークルームを作成</t>
-    <rPh sb="6" eb="8">
-      <t>シンセイ</t>
-    </rPh>
-    <rPh sb="17" eb="19">
-      <t>ボシュウ</t>
-    </rPh>
-    <rPh sb="20" eb="22">
-      <t>トウロク</t>
-    </rPh>
-    <rPh sb="34" eb="36">
-      <t>ボシュウ</t>
-    </rPh>
-    <rPh sb="37" eb="39">
-      <t>オウボ</t>
-    </rPh>
-    <rPh sb="54" eb="55">
-      <t>ト</t>
-    </rPh>
-    <rPh sb="69" eb="71">
-      <t>サクセイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>おすすめ機能</t>
     <rPh sb="4" eb="6">
       <t>キノウ</t>
@@ -370,20 +220,379 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>プロフィールの編集。(画像やプロフィール文など)</t>
+    <t>-</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>画面</t>
+    <rPh sb="0" eb="2">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ログイン画面</t>
+    <rPh sb="4" eb="6">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>求人詳細画面</t>
+    <rPh sb="0" eb="2">
+      <t>キュウジン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ショウサイ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>求人応募機能</t>
+    <rPh sb="0" eb="4">
+      <t>キュウジンオウボ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>キノウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ホーム画面で検索の入力。ボタン押下。
+検索結果は求人一覧画面内に表示。</t>
+    <rPh sb="3" eb="5">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ケンサク</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>オウカ</t>
+    </rPh>
+    <rPh sb="19" eb="23">
+      <t>ケンサクケッカ</t>
+    </rPh>
+    <rPh sb="24" eb="28">
+      <t>キュウジンイチラン</t>
+    </rPh>
+    <rPh sb="28" eb="31">
+      <t>ガメンナイ</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>求人一覧画面で求人情報をクリック
+求人詳細画面に遷移。
+求人詳細画面内に応募ボタンを表示
+応募ボタンを押下すると、募集企業に応募通知が通知され、同時に応募者のプロフィールを表示させる。</t>
+    <rPh sb="0" eb="6">
+      <t>キュウジンイチランガメン</t>
+    </rPh>
+    <rPh sb="7" eb="11">
+      <t>キュウジンジョウホウ</t>
+    </rPh>
+    <rPh sb="17" eb="23">
+      <t>キュウジンショウサイガメン</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>センイ</t>
+    </rPh>
+    <rPh sb="28" eb="35">
+      <t>キュウジンショウサイガメンナイ</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>オウボ</t>
+    </rPh>
+    <rPh sb="42" eb="44">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="45" eb="47">
+      <t>オウボ</t>
+    </rPh>
+    <rPh sb="51" eb="53">
+      <t>オウカ</t>
+    </rPh>
+    <rPh sb="57" eb="61">
+      <t>ボシュウキギョウ</t>
+    </rPh>
+    <rPh sb="62" eb="66">
+      <t>オウボツウチ</t>
+    </rPh>
+    <rPh sb="67" eb="69">
+      <t>ツウチ</t>
+    </rPh>
+    <rPh sb="72" eb="74">
+      <t>ドウジ</t>
+    </rPh>
+    <rPh sb="75" eb="78">
+      <t>オウボシャ</t>
+    </rPh>
+    <rPh sb="86" eb="88">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>応募審査機能</t>
+    <rPh sb="0" eb="6">
+      <t>オウボシンサキノウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>応募一覧画面</t>
+    <rPh sb="0" eb="6">
+      <t>オウボイチランガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>募集企業の担当者が、応募者のプロフィールを見て応募資格を満たしている場合にOKを押下すると、募集企業と応募者のチャットルームを作成する。
+募集に出した求人を初期表示。タブにて応募者一覧の表示も可能。</t>
+    <rPh sb="0" eb="4">
+      <t>ボシュウキギョウ</t>
+    </rPh>
+    <rPh sb="5" eb="8">
+      <t>タントウシャ</t>
+    </rPh>
+    <rPh sb="10" eb="13">
+      <t>オウボシャ</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>ミ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>オウボ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>シカク</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>ミ</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="40" eb="42">
+      <t>オウカ</t>
+    </rPh>
+    <rPh sb="46" eb="50">
+      <t>ボシュウキギョウ</t>
+    </rPh>
+    <rPh sb="51" eb="54">
+      <t>オウボシャ</t>
+    </rPh>
+    <rPh sb="63" eb="65">
+      <t>サクセイ</t>
+    </rPh>
+    <rPh sb="69" eb="71">
+      <t>ボシュウ</t>
+    </rPh>
+    <rPh sb="72" eb="73">
+      <t>ダ</t>
+    </rPh>
+    <rPh sb="75" eb="77">
+      <t>キュウジン</t>
+    </rPh>
+    <rPh sb="78" eb="82">
+      <t>ショキヒョウジ</t>
+    </rPh>
+    <rPh sb="87" eb="90">
+      <t>オウボシャ</t>
+    </rPh>
+    <rPh sb="90" eb="92">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="93" eb="95">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="96" eb="98">
+      <t>カノウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>チャット画面</t>
+    <rPh sb="4" eb="6">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>マッチングを申請したら、マッチング募集を登録したユーザーとマッチング募集に応募したユーザーがメッセージでやり取りをするためのトークルーム</t>
+    <rPh sb="6" eb="8">
+      <t>シンセイ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ボシュウ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>ボシュウ</t>
+    </rPh>
+    <rPh sb="37" eb="39">
+      <t>オウボ</t>
+    </rPh>
+    <rPh sb="54" eb="55">
+      <t>ト</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>どっち側</t>
+    <rPh sb="3" eb="4">
+      <t>ガワ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>両方</t>
+    <rPh sb="0" eb="2">
+      <t>リョウホウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>応募者側</t>
+    <rPh sb="0" eb="3">
+      <t>オウボシャ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ガワ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>企業側</t>
+    <rPh sb="0" eb="3">
+      <t>キギョウガワ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>登録画面</t>
+    <rPh sb="0" eb="4">
+      <t>トウロクガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>求人の登録</t>
+    <rPh sb="0" eb="2">
+      <t>キュウジン</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>トウロク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>削除画面</t>
+    <rPh sb="0" eb="4">
+      <t>サクジョガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>応募一覧画面にて対象の求人をチェックボックスで選択して削除ボタンを押下すると削除画面に遷移。削除画面で確定ボタンを押下すると求人が削除される。
+※応募がある場合は削除不可能とする。</t>
+    <rPh sb="0" eb="6">
+      <t>オウボイチランガメン</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>タイショウ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>キュウジン</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>オウカ</t>
+    </rPh>
+    <rPh sb="38" eb="42">
+      <t>サクジョガメン</t>
+    </rPh>
+    <rPh sb="43" eb="45">
+      <t>センイ</t>
+    </rPh>
+    <rPh sb="46" eb="50">
+      <t>サクジョガメン</t>
+    </rPh>
+    <rPh sb="51" eb="53">
+      <t>カクテイ</t>
+    </rPh>
+    <rPh sb="57" eb="59">
+      <t>オウカ</t>
+    </rPh>
+    <rPh sb="62" eb="64">
+      <t>キュウジン</t>
+    </rPh>
+    <rPh sb="65" eb="67">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="73" eb="75">
+      <t>オウボ</t>
+    </rPh>
+    <rPh sb="78" eb="80">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="81" eb="86">
+      <t>サクジョフカノウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>プロフィールの編集。(プロフィール文など)</t>
     <rPh sb="7" eb="9">
       <t>ヘンシュウ</t>
     </rPh>
-    <rPh sb="11" eb="13">
-      <t>ガゾウ</t>
-    </rPh>
-    <rPh sb="20" eb="21">
+    <rPh sb="17" eb="18">
       <t>ブン</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>-</t>
+    <t>プロフィール画面</t>
+    <rPh sb="6" eb="8">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>おすすめ画面</t>
+    <rPh sb="4" eb="6">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>求人一覧画面</t>
+    <rPh sb="0" eb="6">
+      <t>キュウジンイチランガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>会員登録画面</t>
+    <rPh sb="0" eb="6">
+      <t>カイイントウロクガメン</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -391,7 +600,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -410,10 +619,22 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Yu Gothic"/>
+      <name val="ＭＳ ゴシック"/>
       <family val="3"/>
       <charset val="128"/>
-      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="ＭＳ ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
     </font>
   </fonts>
   <fills count="4">
@@ -463,24 +684,28 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -762,142 +987,229 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:D12"/>
+  <dimension ref="B2:F13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18"/>
+  <sheetFormatPr defaultRowHeight="13.2"/>
   <cols>
-    <col min="2" max="2" width="18.296875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.8984375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="79" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.796875" style="3"/>
+    <col min="2" max="2" width="18.296875" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.8984375" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.8984375" style="3" customWidth="1"/>
+    <col min="5" max="5" width="79" style="8" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.296875" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="8.796875" style="3"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:4">
-      <c r="B2" s="5" t="s">
+    <row r="2" spans="2:6">
+      <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>2</v>
       </c>
+      <c r="F2" s="2" t="s">
+        <v>17</v>
+      </c>
     </row>
-    <row r="3" spans="2:4">
-      <c r="B3" s="7" t="s">
+    <row r="3" spans="2:6">
+      <c r="B3" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6">
+      <c r="B4" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6" ht="39.6">
+      <c r="B5" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6" ht="26.4">
+      <c r="B6" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6" ht="66">
+      <c r="B7" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6" ht="39.6">
+      <c r="B8" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="C3" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>23</v>
+      <c r="C8" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>24</v>
       </c>
     </row>
-    <row r="4" spans="2:4">
-      <c r="B4" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C4" s="2" t="s">
+    <row r="9" spans="2:6" ht="26.4">
+      <c r="B9" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="3" t="s">
-        <v>3</v>
+      <c r="D9" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>26</v>
       </c>
     </row>
-    <row r="5" spans="2:4" ht="54">
-      <c r="B5" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>5</v>
+    <row r="10" spans="2:6">
+      <c r="B10" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>32</v>
       </c>
     </row>
-    <row r="6" spans="2:4">
-      <c r="B6" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" s="2" t="s">
+    <row r="11" spans="2:6" ht="39.6">
+      <c r="B11" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="3" t="s">
-        <v>10</v>
+      <c r="D11" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>34</v>
       </c>
     </row>
-    <row r="7" spans="2:4" ht="36">
-      <c r="B7" s="2" t="s">
+    <row r="12" spans="2:6" ht="26.4">
+      <c r="B12" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="E12" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="F12" s="6" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="13" spans="2:6">
+      <c r="B13" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C13" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D7" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="8" spans="2:4" ht="36">
-      <c r="B8" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="9" spans="2:4">
-      <c r="B9" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="10" spans="2:4" ht="36">
-      <c r="B10" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="11" spans="2:4" ht="36">
-      <c r="B11" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="12" spans="2:4">
-      <c r="B12" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>22</v>
+      <c r="D13" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="F13" s="5" t="s">
+        <v>37</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="B3:D3" xr:uid="{364B6DA4-F8A8-4F62-9381-B7D675015B1F}"/>
+  <autoFilter ref="B3:F3" xr:uid="{4F07FBDC-0C83-4668-86A6-5D1DE76FFEA4}"/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
